--- a/machine_config_w.xlsx
+++ b/machine_config_w.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACAF66B-6191-48D6-8F49-CAFA87AFE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DE177-7090-4333-9D5E-4CA47CD630F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="4320" windowWidth="14205" windowHeight="6975" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -86,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.10.0.201:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.10.0.201:4999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +95,14 @@
   </si>
   <si>
     <t>D102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.21.11:4999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.21.11:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A82F3B-0739-4B46-8DC5-C9EE2B40733D}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -566,16 +566,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/machine_config_w.xlsx
+++ b/machine_config_w.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r03\Desktop\mitsubishi-fx5-try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DE177-7090-4333-9D5E-4CA47CD630F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A491E-0EA9-415B-BB7E-4EF90910DDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BF7E079-436B-4EF4-9EEA-F82FDA08E9C8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +99,10 @@
   </si>
   <si>
     <t>192.168.21.11:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -563,19 +563,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>
